--- a/apotekpj.xlsx
+++ b/apotekpj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCodeMayang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D4D6F7-72DE-444E-9515-4D0CAE755800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD965C-4CDF-403C-8DA0-531016F96107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -716,14 +716,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -761,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -770,7 +774,7 @@
         <v>46171</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -793,7 +797,7 @@
         <v>46202</v>
       </c>
       <c r="G3">
-        <v>1100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,7 +820,7 @@
         <v>46203</v>
       </c>
       <c r="G4">
-        <v>1200</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -839,7 +843,7 @@
         <v>46204</v>
       </c>
       <c r="G5">
-        <v>3000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -862,7 +866,7 @@
         <v>46205</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,7 +880,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -885,7 +889,7 @@
         <v>46206</v>
       </c>
       <c r="G7">
-        <v>1100</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -908,7 +912,7 @@
         <v>46207</v>
       </c>
       <c r="G8">
-        <v>1200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,7 +935,7 @@
         <v>46208</v>
       </c>
       <c r="G9">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -954,7 +958,7 @@
         <v>46209</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,7 +981,7 @@
         <v>46210</v>
       </c>
       <c r="G11">
-        <v>1100</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,7 +1004,7 @@
         <v>46211</v>
       </c>
       <c r="G12">
-        <v>1200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1023,7 +1027,7 @@
         <v>46212</v>
       </c>
       <c r="G13">
-        <v>3000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,7 +1050,7 @@
         <v>46213</v>
       </c>
       <c r="G14">
-        <v>3300</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,7 +1073,7 @@
         <v>46214</v>
       </c>
       <c r="G15">
-        <v>3500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,7 +1096,7 @@
         <v>46215</v>
       </c>
       <c r="G16">
-        <v>3700</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,7 +1119,7 @@
         <v>46216</v>
       </c>
       <c r="G17">
-        <v>3900</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,7 +1142,7 @@
         <v>46217</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,7 +1165,7 @@
         <v>46218</v>
       </c>
       <c r="G19">
-        <v>2100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1184,7 +1188,7 @@
         <v>46219</v>
       </c>
       <c r="G20">
-        <v>1000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,7 +1211,7 @@
         <v>46220</v>
       </c>
       <c r="G21">
-        <v>1100</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1230,7 +1234,7 @@
         <v>46221</v>
       </c>
       <c r="G22">
-        <v>1200</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1253,7 +1257,7 @@
         <v>46222</v>
       </c>
       <c r="G23">
-        <v>3000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,7 +1280,7 @@
         <v>46223</v>
       </c>
       <c r="G24">
-        <v>1000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1299,7 +1303,7 @@
         <v>46224</v>
       </c>
       <c r="G25">
-        <v>1100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,7 +1326,7 @@
         <v>46225</v>
       </c>
       <c r="G26">
-        <v>1200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1345,7 +1349,7 @@
         <v>45861</v>
       </c>
       <c r="G27">
-        <v>3000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,7 +1372,7 @@
         <v>45923</v>
       </c>
       <c r="G28">
-        <v>1000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,7 +1395,7 @@
         <v>45924</v>
       </c>
       <c r="G29">
-        <v>1100</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,7 +1418,7 @@
         <v>45925</v>
       </c>
       <c r="G30">
-        <v>1200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1437,7 +1441,7 @@
         <v>45926</v>
       </c>
       <c r="G31">
-        <v>3000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1460,7 +1464,7 @@
         <v>45927</v>
       </c>
       <c r="G32">
-        <v>3300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1483,7 +1487,7 @@
         <v>45928</v>
       </c>
       <c r="G33">
-        <v>3500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,7 +1510,7 @@
         <v>45929</v>
       </c>
       <c r="G34">
-        <v>3700</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,7 +1533,7 @@
         <v>45930</v>
       </c>
       <c r="G35">
-        <v>3900</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1552,7 +1556,7 @@
         <v>45931</v>
       </c>
       <c r="G36">
-        <v>2000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1575,7 +1579,7 @@
         <v>45932</v>
       </c>
       <c r="G37">
-        <v>2100</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1598,7 +1602,7 @@
         <v>45933</v>
       </c>
       <c r="G38">
-        <v>1000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1621,7 +1625,7 @@
         <v>45934</v>
       </c>
       <c r="G39">
-        <v>1100</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1644,7 +1648,7 @@
         <v>45935</v>
       </c>
       <c r="G40">
-        <v>1200</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1667,7 +1671,7 @@
         <v>45936</v>
       </c>
       <c r="G41">
-        <v>3000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1690,7 +1694,7 @@
         <v>45937</v>
       </c>
       <c r="G42">
-        <v>3300</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1713,7 +1717,7 @@
         <v>45938</v>
       </c>
       <c r="G43">
-        <v>3500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,7 +1740,7 @@
         <v>45939</v>
       </c>
       <c r="G44">
-        <v>3700</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1759,7 +1763,7 @@
         <v>45940</v>
       </c>
       <c r="G45">
-        <v>3900</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1782,7 +1786,7 @@
         <v>45941</v>
       </c>
       <c r="G46">
-        <v>7000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1809,7 @@
         <v>46307</v>
       </c>
       <c r="G47">
-        <v>7200</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1828,7 +1832,7 @@
         <v>46308</v>
       </c>
       <c r="G48">
-        <v>1000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1851,7 +1855,7 @@
         <v>46309</v>
       </c>
       <c r="G49">
-        <v>2000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1874,7 +1878,7 @@
         <v>46310</v>
       </c>
       <c r="G50">
-        <v>21000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1897,168 +1901,7 @@
         <v>46311</v>
       </c>
       <c r="G51">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52">
-        <v>70</v>
-      </c>
-      <c r="E52" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="2">
-        <v>46207</v>
-      </c>
-      <c r="G52">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="2">
-        <v>46213</v>
-      </c>
-      <c r="G53">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>9</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="2">
-        <v>46213</v>
-      </c>
-      <c r="G54">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="2">
-        <v>46213</v>
-      </c>
-      <c r="G55">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56">
-        <v>70</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="2">
-        <v>46219</v>
-      </c>
-      <c r="G56">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="2">
-        <v>46207</v>
-      </c>
-      <c r="G57">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58">
-        <v>100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="2">
-        <v>46228</v>
-      </c>
-      <c r="G58">
-        <v>3000</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/apotekpj.xlsx
+++ b/apotekpj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCodeMayang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD965C-4CDF-403C-8DA0-531016F96107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7BF1D-DE42-4B6E-BA5D-7D6E66CCBFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
